--- a/3_Results/33_ResultsHTC/htc_spillover_adjusted.xlsx
+++ b/3_Results/33_ResultsHTC/htc_spillover_adjusted.xlsx
@@ -553,19 +553,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.258</v>
+        <v>-0.26</v>
       </c>
       <c r="E2">
-        <v>-0.767</v>
+        <v>-0.77</v>
       </c>
       <c r="F2">
-        <v>0.251</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
         <v>0.32</v>
       </c>
       <c r="H2">
-        <v>0.067</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I2">
         <v>0.26</v>
@@ -574,7 +574,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -584,35 +584,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D3">
-        <v>-0.258</v>
+        <v>-0.13</v>
       </c>
       <c r="E3">
-        <v>-0.767</v>
+        <v>-0.83</v>
       </c>
       <c r="F3">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="G3">
-        <v>0.32</v>
+        <v>0.73</v>
       </c>
       <c r="H3">
-        <v>0.067</v>
+        <v>0.13</v>
       </c>
       <c r="I3">
-        <v>0.259</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -622,29 +619,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D4">
-        <v>-0.252</v>
-      </c>
-      <c r="E4">
-        <v>-0.66</v>
-      </c>
-      <c r="F4">
-        <v>0.156</v>
-      </c>
-      <c r="G4">
-        <v>0.226</v>
-      </c>
-      <c r="H4">
-        <v>0.043</v>
-      </c>
-      <c r="I4">
-        <v>0.208</v>
-      </c>
-      <c r="J4">
-        <v>-0</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="5">
@@ -660,32 +639,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D5">
-        <v>-0.126</v>
+        <v>-0.38</v>
       </c>
       <c r="E5">
-        <v>-0.831</v>
+        <v>-0.87</v>
       </c>
       <c r="F5">
-        <v>0.578</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
-        <v>0.725</v>
+        <v>0.12</v>
       </c>
       <c r="H5">
-        <v>0.129</v>
+        <v>0.06</v>
       </c>
       <c r="I5">
-        <v>0.359</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -695,32 +674,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D6">
-        <v>-0.126</v>
+        <v>0.33</v>
       </c>
       <c r="E6">
-        <v>-0.827</v>
+        <v>-1.25</v>
       </c>
       <c r="F6">
-        <v>0.574</v>
+        <v>1.9</v>
       </c>
       <c r="G6">
-        <v>0.724</v>
+        <v>0.34</v>
       </c>
       <c r="H6">
-        <v>0.128</v>
+        <v>0.65</v>
       </c>
       <c r="I6">
-        <v>0.357</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -730,32 +709,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D7">
-        <v>-0.126</v>
-      </c>
-      <c r="E7">
-        <v>-0.715</v>
-      </c>
-      <c r="F7">
-        <v>0.462</v>
-      </c>
-      <c r="G7">
-        <v>0.674</v>
-      </c>
-      <c r="H7">
-        <v>0.09</v>
-      </c>
-      <c r="I7">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -765,11 +729,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D8">
-        <v>-0.126</v>
+        <v>-0.26</v>
+      </c>
+      <c r="E8">
+        <v>-0.77</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+      <c r="G8">
+        <v>0.32</v>
+      </c>
+      <c r="H8">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.26</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -785,17 +767,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D9">
-        <v>-0.126</v>
+        <v>-0.13</v>
+      </c>
+      <c r="E9">
+        <v>-0.83</v>
+      </c>
+      <c r="F9">
+        <v>0.57</v>
+      </c>
+      <c r="G9">
+        <v>0.72</v>
+      </c>
+      <c r="H9">
+        <v>0.13</v>
+      </c>
+      <c r="I9">
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -809,13 +806,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>-0.135</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -829,22 +826,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.384</v>
+        <v>-0.38</v>
       </c>
       <c r="E11">
-        <v>-0.867</v>
+        <v>-0.87</v>
       </c>
       <c r="F11">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="G11">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="H11">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="I11">
-        <v>0.246</v>
+        <v>0.25</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -860,35 +860,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D12">
-        <v>-0.384</v>
+        <v>0.33</v>
       </c>
       <c r="E12">
-        <v>-0.867</v>
+        <v>-1.24</v>
       </c>
       <c r="F12">
-        <v>0.098</v>
+        <v>1.9</v>
       </c>
       <c r="G12">
-        <v>0.118</v>
+        <v>0.34</v>
       </c>
       <c r="H12">
-        <v>0.061</v>
+        <v>0.64</v>
       </c>
       <c r="I12">
-        <v>0.246</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -898,35 +895,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D13">
-        <v>-0.387</v>
-      </c>
-      <c r="E13">
-        <v>-0.8100000000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.035</v>
-      </c>
-      <c r="G13">
-        <v>0.073</v>
-      </c>
-      <c r="H13">
-        <v>0.047</v>
-      </c>
-      <c r="I13">
-        <v>0.216</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -936,32 +915,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.329</v>
+        <v>-0.25</v>
       </c>
       <c r="E14">
-        <v>-1.247</v>
+        <v>-0.66</v>
       </c>
       <c r="F14">
-        <v>1.905</v>
+        <v>0.16</v>
       </c>
       <c r="G14">
-        <v>0.341</v>
+        <v>0.23</v>
       </c>
       <c r="H14">
-        <v>0.646</v>
+        <v>0.04</v>
       </c>
       <c r="I14">
-        <v>0.804</v>
+        <v>0.21</v>
+      </c>
+      <c r="J14">
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -971,26 +953,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.329</v>
+        <v>-0.13</v>
       </c>
       <c r="E15">
-        <v>-1.239</v>
+        <v>-0.71</v>
       </c>
       <c r="F15">
-        <v>1.896</v>
+        <v>0.46</v>
       </c>
       <c r="G15">
-        <v>0.341</v>
+        <v>0.67</v>
       </c>
       <c r="H15">
-        <v>0.64</v>
+        <v>0.09</v>
       </c>
       <c r="I15">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
@@ -1006,32 +988,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.329</v>
-      </c>
-      <c r="E16">
-        <v>-0.97</v>
-      </c>
-      <c r="F16">
-        <v>1.627</v>
-      </c>
-      <c r="G16">
-        <v>0.31</v>
-      </c>
-      <c r="H16">
-        <v>0.439</v>
-      </c>
-      <c r="I16">
-        <v>0.662</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1041,17 +1008,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.329</v>
+        <v>-0.39</v>
+      </c>
+      <c r="E17">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.04</v>
+      </c>
+      <c r="G17">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+      <c r="I17">
+        <v>0.22</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1061,11 +1046,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.329</v>
+        <v>0.33</v>
+      </c>
+      <c r="E18">
+        <v>-0.97</v>
+      </c>
+      <c r="F18">
+        <v>1.63</v>
+      </c>
+      <c r="G18">
+        <v>0.31</v>
+      </c>
+      <c r="H18">
+        <v>0.44</v>
+      </c>
+      <c r="I18">
+        <v>0.66</v>
       </c>
     </row>
     <row r="19">
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -1170,19 +1170,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="E2">
-        <v>0.465</v>
+        <v>0.46</v>
       </c>
       <c r="F2">
-        <v>1.285</v>
+        <v>1.28</v>
       </c>
       <c r="G2">
         <v>0.32</v>
       </c>
       <c r="H2">
-        <v>0.067</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I2">
         <v>0.26</v>
@@ -1191,7 +1191,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1201,35 +1201,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.773</v>
+        <v>0.88</v>
       </c>
       <c r="E3">
-        <v>0.465</v>
+        <v>0.44</v>
       </c>
       <c r="F3">
-        <v>1.284</v>
+        <v>1.78</v>
       </c>
       <c r="G3">
-        <v>0.32</v>
+        <v>0.73</v>
       </c>
       <c r="H3">
-        <v>0.067</v>
+        <v>0.13</v>
       </c>
       <c r="I3">
-        <v>0.259</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1239,29 +1236,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Direct</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D4">
-        <v>0.777</v>
-      </c>
-      <c r="E4">
-        <v>0.517</v>
-      </c>
-      <c r="F4">
-        <v>1.169</v>
-      </c>
-      <c r="G4">
-        <v>0.226</v>
-      </c>
-      <c r="H4">
-        <v>0.043</v>
-      </c>
-      <c r="I4">
-        <v>0.208</v>
-      </c>
-      <c r="J4">
-        <v>-0</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="5">
@@ -1277,32 +1256,32 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.881</v>
+        <v>0.68</v>
       </c>
       <c r="E5">
-        <v>0.436</v>
+        <v>0.42</v>
       </c>
       <c r="F5">
-        <v>1.783</v>
+        <v>1.1</v>
       </c>
       <c r="G5">
-        <v>0.725</v>
+        <v>0.12</v>
       </c>
       <c r="H5">
-        <v>0.129</v>
+        <v>0.06</v>
       </c>
       <c r="I5">
-        <v>0.359</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1312,32 +1291,32 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.881</v>
+        <v>0.33</v>
       </c>
       <c r="E6">
-        <v>0.437</v>
+        <v>-1.25</v>
       </c>
       <c r="F6">
-        <v>1.776</v>
+        <v>1.9</v>
       </c>
       <c r="G6">
-        <v>0.724</v>
+        <v>0.34</v>
       </c>
       <c r="H6">
-        <v>0.128</v>
+        <v>0.65</v>
       </c>
       <c r="I6">
-        <v>0.357</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1347,32 +1326,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Indirect</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.881</v>
-      </c>
-      <c r="E7">
-        <v>0.489</v>
-      </c>
-      <c r="F7">
-        <v>1.587</v>
-      </c>
-      <c r="G7">
-        <v>0.674</v>
-      </c>
-      <c r="H7">
-        <v>0.09</v>
-      </c>
-      <c r="I7">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1382,11 +1346,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.881</v>
+        <v>0.77</v>
+      </c>
+      <c r="E8">
+        <v>0.46</v>
+      </c>
+      <c r="F8">
+        <v>1.28</v>
+      </c>
+      <c r="G8">
+        <v>0.32</v>
+      </c>
+      <c r="H8">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.26</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1402,17 +1384,32 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Indirect Calculated</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.881</v>
+        <v>0.88</v>
+      </c>
+      <c r="E9">
+        <v>0.44</v>
+      </c>
+      <c r="F9">
+        <v>1.78</v>
+      </c>
+      <c r="G9">
+        <v>0.72</v>
+      </c>
+      <c r="H9">
+        <v>0.13</v>
+      </c>
+      <c r="I9">
+        <v>0.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1426,13 +1423,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.874</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1446,22 +1443,25 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.681</v>
+        <v>0.68</v>
       </c>
       <c r="E11">
         <v>0.42</v>
       </c>
       <c r="F11">
-        <v>1.103</v>
+        <v>1.1</v>
       </c>
       <c r="G11">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="H11">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="I11">
-        <v>0.246</v>
+        <v>0.25</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1477,35 +1477,32 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.681</v>
+        <v>0.33</v>
       </c>
       <c r="E12">
-        <v>0.42</v>
+        <v>-1.24</v>
       </c>
       <c r="F12">
-        <v>1.103</v>
+        <v>1.9</v>
       </c>
       <c r="G12">
-        <v>0.118</v>
+        <v>0.34</v>
       </c>
       <c r="H12">
-        <v>0.061</v>
+        <v>0.64</v>
       </c>
       <c r="I12">
-        <v>0.246</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GEE</t>
+          <t>GLMM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1515,35 +1512,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>PM Calculated</t>
         </is>
       </c>
       <c r="D13">
-        <v>0.679</v>
-      </c>
-      <c r="E13">
-        <v>0.445</v>
-      </c>
-      <c r="F13">
-        <v>1.036</v>
-      </c>
-      <c r="G13">
-        <v>0.073</v>
-      </c>
-      <c r="H13">
-        <v>0.047</v>
-      </c>
-      <c r="I13">
-        <v>0.216</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1553,32 +1532,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Direct</t>
         </is>
       </c>
       <c r="D14">
-        <v>0.329</v>
+        <v>0.78</v>
       </c>
       <c r="E14">
-        <v>-1.247</v>
+        <v>0.52</v>
       </c>
       <c r="F14">
-        <v>1.905</v>
+        <v>1.17</v>
       </c>
       <c r="G14">
-        <v>0.341</v>
+        <v>0.23</v>
       </c>
       <c r="H14">
-        <v>0.646</v>
+        <v>0.04</v>
       </c>
       <c r="I14">
-        <v>0.804</v>
+        <v>0.21</v>
+      </c>
+      <c r="J14">
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1588,26 +1570,26 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect</t>
         </is>
       </c>
       <c r="D15">
-        <v>0.329</v>
+        <v>0.88</v>
       </c>
       <c r="E15">
-        <v>-1.239</v>
+        <v>0.49</v>
       </c>
       <c r="F15">
-        <v>1.896</v>
+        <v>1.59</v>
       </c>
       <c r="G15">
-        <v>0.341</v>
+        <v>0.67</v>
       </c>
       <c r="H15">
-        <v>0.64</v>
+        <v>0.09</v>
       </c>
       <c r="I15">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
@@ -1623,32 +1605,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>Indirect Calculated</t>
         </is>
       </c>
       <c r="D16">
-        <v>0.329</v>
-      </c>
-      <c r="E16">
-        <v>-0.97</v>
-      </c>
-      <c r="F16">
-        <v>1.627</v>
-      </c>
-      <c r="G16">
-        <v>0.31</v>
-      </c>
-      <c r="H16">
-        <v>0.439</v>
-      </c>
-      <c r="I16">
-        <v>0.662</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GLM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1658,17 +1625,35 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="D17">
-        <v>0.329</v>
+        <v>0.68</v>
+      </c>
+      <c r="E17">
+        <v>0.44</v>
+      </c>
+      <c r="F17">
+        <v>1.04</v>
+      </c>
+      <c r="G17">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.05</v>
+      </c>
+      <c r="I17">
+        <v>0.22</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GLMM</t>
+          <t>GEE</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1678,11 +1663,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PM Calculated</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D18">
-        <v>0.329</v>
+        <v>0.33</v>
+      </c>
+      <c r="E18">
+        <v>-0.97</v>
+      </c>
+      <c r="F18">
+        <v>1.63</v>
+      </c>
+      <c r="G18">
+        <v>0.31</v>
+      </c>
+      <c r="H18">
+        <v>0.44</v>
+      </c>
+      <c r="I18">
+        <v>0.66</v>
       </c>
     </row>
     <row r="19">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -1787,22 +1787,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.384</v>
+        <v>-0.38</v>
       </c>
       <c r="E2">
-        <v>-0.867</v>
+        <v>-0.87</v>
       </c>
       <c r="F2">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="H2">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="I2">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -1822,22 +1822,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.023</v>
+        <v>-0.02</v>
       </c>
       <c r="E3">
-        <v>-0.041</v>
+        <v>-0.04</v>
       </c>
       <c r="F3">
-        <v>-0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="G3">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -1857,22 +1857,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.117</v>
+        <v>0.12</v>
       </c>
       <c r="E4">
         <v>-0.14</v>
       </c>
       <c r="F4">
-        <v>0.374</v>
+        <v>0.37</v>
       </c>
       <c r="G4">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="H4">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I4">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -1895,19 +1895,19 @@
         <v>4.67</v>
       </c>
       <c r="E5">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
       <c r="F5">
-        <v>8.913</v>
+        <v>8.91</v>
       </c>
       <c r="G5">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="H5">
-        <v>4.686</v>
+        <v>4.69</v>
       </c>
       <c r="I5">
-        <v>2.165</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="6">
@@ -1927,19 +1927,19 @@
         </is>
       </c>
       <c r="D6">
-        <v>6.195</v>
+        <v>6.19</v>
       </c>
       <c r="E6">
-        <v>-2.743</v>
+        <v>-2.74</v>
       </c>
       <c r="F6">
-        <v>15.133</v>
+        <v>15.13</v>
       </c>
       <c r="G6">
-        <v>0.174</v>
+        <v>0.17</v>
       </c>
       <c r="H6">
-        <v>20.796</v>
+        <v>20.8</v>
       </c>
       <c r="I6">
         <v>4.56</v>
@@ -1962,22 +1962,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.909</v>
+        <v>-0.91</v>
       </c>
       <c r="E7">
-        <v>-4.805</v>
+        <v>-4.8</v>
       </c>
       <c r="F7">
-        <v>2.987</v>
+        <v>2.99</v>
       </c>
       <c r="G7">
-        <v>0.647</v>
+        <v>0.65</v>
       </c>
       <c r="H7">
-        <v>3.951</v>
+        <v>3.95</v>
       </c>
       <c r="I7">
-        <v>1.988</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="8">
@@ -1997,22 +1997,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>-0.384</v>
+        <v>-0.38</v>
       </c>
       <c r="E8">
-        <v>-0.867</v>
+        <v>-0.87</v>
       </c>
       <c r="F8">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="G8">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="H8">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2035,22 +2035,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.023</v>
+        <v>-0.02</v>
       </c>
       <c r="E9">
-        <v>-0.041</v>
+        <v>-0.04</v>
       </c>
       <c r="F9">
-        <v>-0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="G9">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2073,22 +2073,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.117</v>
+        <v>0.12</v>
       </c>
       <c r="E10">
         <v>-0.14</v>
       </c>
       <c r="F10">
-        <v>0.374</v>
+        <v>0.37</v>
       </c>
       <c r="G10">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="H10">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I10">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2114,19 +2114,19 @@
         <v>4.67</v>
       </c>
       <c r="E11">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="F11">
-        <v>8.911</v>
+        <v>8.91</v>
       </c>
       <c r="G11">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="H11">
-        <v>4.682</v>
+        <v>4.68</v>
       </c>
       <c r="I11">
-        <v>2.164</v>
+        <v>2.16</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2149,22 +2149,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>6.195</v>
+        <v>6.19</v>
       </c>
       <c r="E12">
-        <v>-2.745</v>
+        <v>-2.75</v>
       </c>
       <c r="F12">
-        <v>15.135</v>
+        <v>15.13</v>
       </c>
       <c r="G12">
-        <v>0.174</v>
+        <v>0.17</v>
       </c>
       <c r="H12">
-        <v>20.806</v>
+        <v>20.81</v>
       </c>
       <c r="I12">
-        <v>4.561</v>
+        <v>4.56</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2187,22 +2187,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>-0.909</v>
+        <v>-0.91</v>
       </c>
       <c r="E13">
-        <v>-4.804</v>
+        <v>-4.8</v>
       </c>
       <c r="F13">
-        <v>2.987</v>
+        <v>2.99</v>
       </c>
       <c r="G13">
-        <v>0.647</v>
+        <v>0.65</v>
       </c>
       <c r="H13">
         <v>3.95</v>
       </c>
       <c r="I13">
-        <v>1.988</v>
+        <v>1.99</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2225,22 +2225,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>-0.387</v>
+        <v>-0.39</v>
       </c>
       <c r="E14">
         <v>-0.8100000000000001</v>
       </c>
       <c r="F14">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G14">
-        <v>0.073</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H14">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="I14">
-        <v>0.216</v>
+        <v>0.22</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2263,22 +2263,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.023</v>
+        <v>-0.02</v>
       </c>
       <c r="E15">
-        <v>-0.041</v>
+        <v>-0.04</v>
       </c>
       <c r="F15">
-        <v>-0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="G15">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -2301,22 +2301,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.116</v>
+        <v>0.12</v>
       </c>
       <c r="E16">
-        <v>-0.142</v>
+        <v>-0.14</v>
       </c>
       <c r="F16">
-        <v>0.374</v>
+        <v>0.37</v>
       </c>
       <c r="G16">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="H16">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I16">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -2339,22 +2339,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>4.663</v>
+        <v>4.66</v>
       </c>
       <c r="E17">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="F17">
-        <v>8.888</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="G17">
         <v>0.03</v>
       </c>
       <c r="H17">
-        <v>4.645</v>
+        <v>4.65</v>
       </c>
       <c r="I17">
-        <v>2.155</v>
+        <v>2.16</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="D18">
-        <v>6.237</v>
+        <v>6.24</v>
       </c>
       <c r="E18">
-        <v>-3.128</v>
+        <v>-3.13</v>
       </c>
       <c r="F18">
-        <v>15.601</v>
+        <v>15.6</v>
       </c>
       <c r="G18">
-        <v>0.192</v>
+        <v>0.19</v>
       </c>
       <c r="H18">
-        <v>22.828</v>
+        <v>22.83</v>
       </c>
       <c r="I18">
-        <v>4.778</v>
+        <v>4.78</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2415,22 +2415,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>-0.887</v>
+        <v>-0.89</v>
       </c>
       <c r="E19">
-        <v>-5.025</v>
+        <v>-5.02</v>
       </c>
       <c r="F19">
-        <v>3.251</v>
+        <v>3.25</v>
       </c>
       <c r="G19">
-        <v>0.674</v>
+        <v>0.67</v>
       </c>
       <c r="H19">
-        <v>4.457</v>
+        <v>4.46</v>
       </c>
       <c r="I19">
-        <v>2.111</v>
+        <v>2.11</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2518,22 +2518,22 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.681</v>
+        <v>0.68</v>
       </c>
       <c r="E2">
         <v>0.42</v>
       </c>
       <c r="F2">
-        <v>1.103</v>
+        <v>1.1</v>
       </c>
       <c r="G2">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="H2">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="I2">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -2553,22 +2553,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
       <c r="E3">
         <v>0.96</v>
       </c>
       <c r="F3">
-        <v>0.994</v>
+        <v>0.99</v>
       </c>
       <c r="G3">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -2588,22 +2588,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>1.124</v>
+        <v>1.12</v>
       </c>
       <c r="E4">
-        <v>0.869</v>
+        <v>0.87</v>
       </c>
       <c r="F4">
-        <v>1.454</v>
+        <v>1.45</v>
       </c>
       <c r="G4">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="H4">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I4">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -2626,19 +2626,19 @@
         <v>106.69</v>
       </c>
       <c r="E5">
-        <v>1.533</v>
+        <v>1.53</v>
       </c>
       <c r="F5">
-        <v>7424.329</v>
+        <v>7424.33</v>
       </c>
       <c r="G5">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="H5">
-        <v>4.686</v>
+        <v>4.69</v>
       </c>
       <c r="I5">
-        <v>2.165</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="6">
@@ -2658,19 +2658,19 @@
         </is>
       </c>
       <c r="D6">
-        <v>490.155</v>
+        <v>490.15</v>
       </c>
       <c r="E6">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="F6">
-        <v>3732660.869</v>
+        <v>3732660.87</v>
       </c>
       <c r="G6">
-        <v>0.174</v>
+        <v>0.17</v>
       </c>
       <c r="H6">
-        <v>20.796</v>
+        <v>20.8</v>
       </c>
       <c r="I6">
         <v>4.56</v>
@@ -2693,22 +2693,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.403</v>
+        <v>0.4</v>
       </c>
       <c r="E7">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="F7">
-        <v>19.824</v>
+        <v>19.82</v>
       </c>
       <c r="G7">
-        <v>0.647</v>
+        <v>0.65</v>
       </c>
       <c r="H7">
-        <v>3.951</v>
+        <v>3.95</v>
       </c>
       <c r="I7">
-        <v>1.988</v>
+        <v>1.99</v>
       </c>
     </row>
     <row r="8">
@@ -2728,22 +2728,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.681</v>
+        <v>0.68</v>
       </c>
       <c r="E8">
         <v>0.42</v>
       </c>
       <c r="F8">
-        <v>1.103</v>
+        <v>1.1</v>
       </c>
       <c r="G8">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="H8">
-        <v>0.061</v>
+        <v>0.06</v>
       </c>
       <c r="I8">
-        <v>0.246</v>
+        <v>0.25</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
       <c r="E9">
         <v>0.96</v>
       </c>
       <c r="F9">
-        <v>0.994</v>
+        <v>0.99</v>
       </c>
       <c r="G9">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>1.124</v>
+        <v>1.12</v>
       </c>
       <c r="E10">
-        <v>0.869</v>
+        <v>0.87</v>
       </c>
       <c r="F10">
-        <v>1.454</v>
+        <v>1.45</v>
       </c>
       <c r="G10">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="H10">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I10">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>106.69</v>
       </c>
       <c r="E11">
-        <v>1.535</v>
+        <v>1.54</v>
       </c>
       <c r="F11">
-        <v>7413.309</v>
+        <v>7413.31</v>
       </c>
       <c r="G11">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="H11">
-        <v>4.682</v>
+        <v>4.68</v>
       </c>
       <c r="I11">
-        <v>2.164</v>
+        <v>2.16</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -2880,22 +2880,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>490.155</v>
+        <v>490.15</v>
       </c>
       <c r="E12">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="F12">
-        <v>3740482.426</v>
+        <v>3740482.43</v>
       </c>
       <c r="G12">
-        <v>0.174</v>
+        <v>0.17</v>
       </c>
       <c r="H12">
-        <v>20.806</v>
+        <v>20.81</v>
       </c>
       <c r="I12">
-        <v>4.561</v>
+        <v>4.56</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.403</v>
+        <v>0.4</v>
       </c>
       <c r="E13">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="F13">
-        <v>19.818</v>
+        <v>19.82</v>
       </c>
       <c r="G13">
-        <v>0.647</v>
+        <v>0.65</v>
       </c>
       <c r="H13">
         <v>3.95</v>
       </c>
       <c r="I13">
-        <v>1.988</v>
+        <v>1.99</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -2956,22 +2956,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.679</v>
+        <v>0.68</v>
       </c>
       <c r="E14">
-        <v>0.445</v>
+        <v>0.44</v>
       </c>
       <c r="F14">
-        <v>1.036</v>
+        <v>1.04</v>
       </c>
       <c r="G14">
-        <v>0.073</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H14">
-        <v>0.047</v>
+        <v>0.05</v>
       </c>
       <c r="I14">
-        <v>0.216</v>
+        <v>0.22</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
       <c r="E15">
         <v>0.96</v>
       </c>
       <c r="F15">
-        <v>0.994</v>
+        <v>0.99</v>
       </c>
       <c r="G15">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3032,22 +3032,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>1.123</v>
+        <v>1.12</v>
       </c>
       <c r="E16">
-        <v>0.868</v>
+        <v>0.87</v>
       </c>
       <c r="F16">
-        <v>1.454</v>
+        <v>1.45</v>
       </c>
       <c r="G16">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="H16">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I16">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3070,22 +3070,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>105.984</v>
+        <v>105.98</v>
       </c>
       <c r="E17">
-        <v>1.551</v>
+        <v>1.55</v>
       </c>
       <c r="F17">
-        <v>7241.304</v>
+        <v>7241.3</v>
       </c>
       <c r="G17">
         <v>0.03</v>
       </c>
       <c r="H17">
-        <v>4.645</v>
+        <v>4.65</v>
       </c>
       <c r="I17">
-        <v>2.155</v>
+        <v>2.16</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -3108,22 +3108,22 @@
         </is>
       </c>
       <c r="D18">
-        <v>511.102</v>
+        <v>511.1</v>
       </c>
       <c r="E18">
-        <v>0.044</v>
+        <v>0.04</v>
       </c>
       <c r="F18">
-        <v>5963179.375</v>
+        <v>5963179.37</v>
       </c>
       <c r="G18">
-        <v>0.192</v>
+        <v>0.19</v>
       </c>
       <c r="H18">
-        <v>22.828</v>
+        <v>22.83</v>
       </c>
       <c r="I18">
-        <v>4.778</v>
+        <v>4.78</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3146,22 +3146,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.412</v>
+        <v>0.41</v>
       </c>
       <c r="E19">
-        <v>0.007</v>
+        <v>0.01</v>
       </c>
       <c r="F19">
-        <v>25.806</v>
+        <v>25.81</v>
       </c>
       <c r="G19">
-        <v>0.674</v>
+        <v>0.67</v>
       </c>
       <c r="H19">
-        <v>4.457</v>
+        <v>4.46</v>
       </c>
       <c r="I19">
-        <v>2.111</v>
+        <v>2.11</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3249,19 +3249,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.258</v>
+        <v>-0.26</v>
       </c>
       <c r="E2">
-        <v>-0.767</v>
+        <v>-0.77</v>
       </c>
       <c r="F2">
-        <v>0.251</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
         <v>0.32</v>
       </c>
       <c r="H2">
-        <v>0.067</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I2">
         <v>0.26</v>
@@ -3284,22 +3284,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>3.815</v>
+        <v>3.82</v>
       </c>
       <c r="E3">
-        <v>-1.371</v>
+        <v>-1.37</v>
       </c>
       <c r="F3">
-        <v>9.002000000000001</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="H3">
-        <v>7.002</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>2.646</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="4">
@@ -3319,22 +3319,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.023</v>
+        <v>-0.02</v>
       </c>
       <c r="E4">
-        <v>-0.041</v>
+        <v>-0.04</v>
       </c>
       <c r="F4">
-        <v>-0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="G4">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -3354,22 +3354,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.117</v>
+        <v>0.12</v>
       </c>
       <c r="E5">
-        <v>-0.141</v>
+        <v>-0.14</v>
       </c>
       <c r="F5">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="G5">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="H5">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I5">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -3392,19 +3392,19 @@
         <v>3.44</v>
       </c>
       <c r="E6">
-        <v>-1.038</v>
+        <v>-1.04</v>
       </c>
       <c r="F6">
-        <v>7.919</v>
+        <v>7.92</v>
       </c>
       <c r="G6">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="H6">
-        <v>5.221</v>
+        <v>5.22</v>
       </c>
       <c r="I6">
-        <v>2.285</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="7">
@@ -3424,22 +3424,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>6.985</v>
+        <v>6.98</v>
       </c>
       <c r="E7">
-        <v>-2.153</v>
+        <v>-2.15</v>
       </c>
       <c r="F7">
-        <v>16.123</v>
+        <v>16.12</v>
       </c>
       <c r="G7">
-        <v>0.134</v>
+        <v>0.13</v>
       </c>
       <c r="H7">
-        <v>21.738</v>
+        <v>21.74</v>
       </c>
       <c r="I7">
-        <v>4.662</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="8">
@@ -3459,22 +3459,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>-2.034</v>
+        <v>-2.03</v>
       </c>
       <c r="E8">
-        <v>-6.224</v>
+        <v>-6.22</v>
       </c>
       <c r="F8">
-        <v>2.156</v>
+        <v>2.16</v>
       </c>
       <c r="G8">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="H8">
-        <v>4.571</v>
+        <v>4.57</v>
       </c>
       <c r="I8">
-        <v>2.138</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="9">
@@ -3494,10 +3494,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>-0.258</v>
+        <v>-0.26</v>
       </c>
       <c r="E9">
-        <v>-0.767</v>
+        <v>-0.77</v>
       </c>
       <c r="F9">
         <v>0.25</v>
@@ -3506,10 +3506,10 @@
         <v>0.32</v>
       </c>
       <c r="H9">
-        <v>0.067</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I9">
-        <v>0.259</v>
+        <v>0.26</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3532,22 +3532,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>3.815</v>
+        <v>3.82</v>
       </c>
       <c r="E10">
-        <v>-1.367</v>
+        <v>-1.37</v>
       </c>
       <c r="F10">
-        <v>8.997</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="H10">
-        <v>6.991</v>
+        <v>6.99</v>
       </c>
       <c r="I10">
-        <v>2.644</v>
+        <v>2.64</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         </is>
       </c>
       <c r="D11">
-        <v>-0.023</v>
+        <v>-0.02</v>
       </c>
       <c r="E11">
-        <v>-0.041</v>
+        <v>-0.04</v>
       </c>
       <c r="F11">
-        <v>-0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="G11">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3608,22 +3608,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.117</v>
+        <v>0.12</v>
       </c>
       <c r="E12">
-        <v>-0.141</v>
+        <v>-0.14</v>
       </c>
       <c r="F12">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="G12">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="H12">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I12">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3649,19 +3649,19 @@
         <v>3.44</v>
       </c>
       <c r="E13">
-        <v>-1.036</v>
+        <v>-1.04</v>
       </c>
       <c r="F13">
-        <v>7.917</v>
+        <v>7.92</v>
       </c>
       <c r="G13">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="H13">
-        <v>5.217</v>
+        <v>5.22</v>
       </c>
       <c r="I13">
-        <v>2.284</v>
+        <v>2.28</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3684,22 +3684,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>6.985</v>
+        <v>6.98</v>
       </c>
       <c r="E14">
         <v>-2.16</v>
       </c>
       <c r="F14">
-        <v>16.129</v>
+        <v>16.13</v>
       </c>
       <c r="G14">
-        <v>0.134</v>
+        <v>0.13</v>
       </c>
       <c r="H14">
-        <v>21.769</v>
+        <v>21.77</v>
       </c>
       <c r="I14">
-        <v>4.666</v>
+        <v>4.67</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -3722,22 +3722,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>-2.034</v>
+        <v>-2.03</v>
       </c>
       <c r="E15">
-        <v>-6.221</v>
+        <v>-6.22</v>
       </c>
       <c r="F15">
-        <v>2.153</v>
+        <v>2.15</v>
       </c>
       <c r="G15">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="H15">
-        <v>4.563</v>
+        <v>4.56</v>
       </c>
       <c r="I15">
-        <v>2.136</v>
+        <v>2.14</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -3760,22 +3760,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>-0.252</v>
+        <v>-0.25</v>
       </c>
       <c r="E16">
         <v>-0.66</v>
       </c>
       <c r="F16">
-        <v>0.156</v>
+        <v>0.16</v>
       </c>
       <c r="G16">
-        <v>0.226</v>
+        <v>0.23</v>
       </c>
       <c r="H16">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="I16">
-        <v>0.208</v>
+        <v>0.21</v>
       </c>
       <c r="J16">
         <v>-0</v>
@@ -3798,22 +3798,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>3.866</v>
+        <v>3.87</v>
       </c>
       <c r="E17">
-        <v>0.281</v>
+        <v>0.28</v>
       </c>
       <c r="F17">
-        <v>7.451</v>
+        <v>7.45</v>
       </c>
       <c r="G17">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="H17">
-        <v>3.345</v>
+        <v>3.34</v>
       </c>
       <c r="I17">
-        <v>1.829</v>
+        <v>1.83</v>
       </c>
       <c r="J17">
         <v>-0</v>
@@ -3836,22 +3836,22 @@
         </is>
       </c>
       <c r="D18">
-        <v>-0.023</v>
+        <v>-0.02</v>
       </c>
       <c r="E18">
         <v>-0.04</v>
       </c>
       <c r="F18">
-        <v>-0.006</v>
+        <v>-0.01</v>
       </c>
       <c r="G18">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="J18">
         <v>-0</v>
@@ -3874,22 +3874,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.118</v>
+        <v>0.12</v>
       </c>
       <c r="E19">
-        <v>-0.141</v>
+        <v>-0.14</v>
       </c>
       <c r="F19">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="G19">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="H19">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I19">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="J19">
         <v>-0</v>
@@ -3912,22 +3912,22 @@
         </is>
       </c>
       <c r="D20">
-        <v>3.431</v>
+        <v>3.43</v>
       </c>
       <c r="E20">
-        <v>-0.527</v>
+        <v>-0.53</v>
       </c>
       <c r="F20">
-        <v>7.388</v>
+        <v>7.39</v>
       </c>
       <c r="G20">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
       <c r="H20">
-        <v>4.077</v>
+        <v>4.08</v>
       </c>
       <c r="I20">
-        <v>2.019</v>
+        <v>2.02</v>
       </c>
       <c r="J20">
         <v>-0</v>
@@ -3950,22 +3950,22 @@
         </is>
       </c>
       <c r="D21">
-        <v>6.933</v>
+        <v>6.93</v>
       </c>
       <c r="E21">
         <v>-2.03</v>
       </c>
       <c r="F21">
-        <v>15.897</v>
+        <v>15.9</v>
       </c>
       <c r="G21">
         <v>0.13</v>
       </c>
       <c r="H21">
-        <v>20.915</v>
+        <v>20.92</v>
       </c>
       <c r="I21">
-        <v>4.573</v>
+        <v>4.57</v>
       </c>
       <c r="J21">
         <v>-0</v>
@@ -3988,22 +3988,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>-2.078</v>
+        <v>-2.08</v>
       </c>
       <c r="E22">
-        <v>-6.229</v>
+        <v>-6.23</v>
       </c>
       <c r="F22">
-        <v>2.074</v>
+        <v>2.07</v>
       </c>
       <c r="G22">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="H22">
-        <v>4.486</v>
+        <v>4.49</v>
       </c>
       <c r="I22">
-        <v>2.118</v>
+        <v>2.12</v>
       </c>
       <c r="J22">
         <v>-0</v>
@@ -4091,19 +4091,19 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="E2">
-        <v>0.465</v>
+        <v>0.46</v>
       </c>
       <c r="F2">
-        <v>1.285</v>
+        <v>1.28</v>
       </c>
       <c r="G2">
         <v>0.32</v>
       </c>
       <c r="H2">
-        <v>0.067</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I2">
         <v>0.26</v>
@@ -4126,22 +4126,22 @@
         </is>
       </c>
       <c r="D3">
-        <v>45.392</v>
+        <v>45.39</v>
       </c>
       <c r="E3">
-        <v>0.254</v>
+        <v>0.25</v>
       </c>
       <c r="F3">
-        <v>8117.831</v>
+        <v>8117.83</v>
       </c>
       <c r="G3">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="H3">
-        <v>7.002</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>2.646</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="4">
@@ -4161,22 +4161,22 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
       <c r="E4">
         <v>0.96</v>
       </c>
       <c r="F4">
-        <v>0.994</v>
+        <v>0.99</v>
       </c>
       <c r="G4">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -4196,22 +4196,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>1.124</v>
+        <v>1.12</v>
       </c>
       <c r="E5">
-        <v>0.868</v>
+        <v>0.87</v>
       </c>
       <c r="F5">
-        <v>1.454</v>
+        <v>1.45</v>
       </c>
       <c r="G5">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="H5">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I5">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -4234,19 +4234,19 @@
         <v>31.2</v>
       </c>
       <c r="E6">
-        <v>0.354</v>
+        <v>0.35</v>
       </c>
       <c r="F6">
-        <v>2748.791</v>
+        <v>2748.79</v>
       </c>
       <c r="G6">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="H6">
-        <v>5.221</v>
+        <v>5.22</v>
       </c>
       <c r="I6">
-        <v>2.285</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="7">
@@ -4266,22 +4266,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>1080.222</v>
+        <v>1080.22</v>
       </c>
       <c r="E7">
-        <v>0.116</v>
+        <v>0.12</v>
       </c>
       <c r="F7">
         <v>10049920.87</v>
       </c>
       <c r="G7">
-        <v>0.134</v>
+        <v>0.13</v>
       </c>
       <c r="H7">
-        <v>21.738</v>
+        <v>21.74</v>
       </c>
       <c r="I7">
-        <v>4.662</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="8">
@@ -4301,22 +4301,22 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="E8">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>8.635999999999999</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="G8">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="H8">
-        <v>4.571</v>
+        <v>4.57</v>
       </c>
       <c r="I8">
-        <v>2.138</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="9">
@@ -4336,22 +4336,22 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="E9">
-        <v>0.465</v>
+        <v>0.46</v>
       </c>
       <c r="F9">
-        <v>1.284</v>
+        <v>1.28</v>
       </c>
       <c r="G9">
         <v>0.32</v>
       </c>
       <c r="H9">
-        <v>0.067</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I9">
-        <v>0.259</v>
+        <v>0.26</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -4374,22 +4374,22 @@
         </is>
       </c>
       <c r="D10">
-        <v>45.392</v>
+        <v>45.39</v>
       </c>
       <c r="E10">
-        <v>0.255</v>
+        <v>0.25</v>
       </c>
       <c r="F10">
-        <v>8082.022</v>
+        <v>8082.02</v>
       </c>
       <c r="G10">
-        <v>0.149</v>
+        <v>0.15</v>
       </c>
       <c r="H10">
-        <v>6.991</v>
+        <v>6.99</v>
       </c>
       <c r="I10">
-        <v>2.644</v>
+        <v>2.64</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -4412,22 +4412,22 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
       <c r="E11">
         <v>0.96</v>
       </c>
       <c r="F11">
-        <v>0.994</v>
+        <v>0.99</v>
       </c>
       <c r="G11">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -4450,22 +4450,22 @@
         </is>
       </c>
       <c r="D12">
-        <v>1.124</v>
+        <v>1.12</v>
       </c>
       <c r="E12">
-        <v>0.868</v>
+        <v>0.87</v>
       </c>
       <c r="F12">
-        <v>1.454</v>
+        <v>1.45</v>
       </c>
       <c r="G12">
-        <v>0.375</v>
+        <v>0.37</v>
       </c>
       <c r="H12">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I12">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -4491,19 +4491,19 @@
         <v>31.2</v>
       </c>
       <c r="E13">
-        <v>0.355</v>
+        <v>0.35</v>
       </c>
       <c r="F13">
         <v>2743.85</v>
       </c>
       <c r="G13">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="H13">
-        <v>5.217</v>
+        <v>5.22</v>
       </c>
       <c r="I13">
-        <v>2.284</v>
+        <v>2.28</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -4526,22 +4526,22 @@
         </is>
       </c>
       <c r="D14">
-        <v>1080.222</v>
+        <v>1080.22</v>
       </c>
       <c r="E14">
-        <v>0.115</v>
+        <v>0.12</v>
       </c>
       <c r="F14">
-        <v>10114681.431</v>
+        <v>10114681.43</v>
       </c>
       <c r="G14">
-        <v>0.134</v>
+        <v>0.13</v>
       </c>
       <c r="H14">
-        <v>21.769</v>
+        <v>21.77</v>
       </c>
       <c r="I14">
-        <v>4.666</v>
+        <v>4.67</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -4564,22 +4564,22 @@
         </is>
       </c>
       <c r="D15">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="E15">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>8.606999999999999</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="G15">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="H15">
-        <v>4.563</v>
+        <v>4.56</v>
       </c>
       <c r="I15">
-        <v>2.136</v>
+        <v>2.14</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -4602,22 +4602,22 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="E16">
-        <v>0.517</v>
+        <v>0.52</v>
       </c>
       <c r="F16">
-        <v>1.169</v>
+        <v>1.17</v>
       </c>
       <c r="G16">
-        <v>0.226</v>
+        <v>0.23</v>
       </c>
       <c r="H16">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="I16">
-        <v>0.208</v>
+        <v>0.21</v>
       </c>
       <c r="J16">
         <v>-0</v>
@@ -4640,22 +4640,22 @@
         </is>
       </c>
       <c r="D17">
-        <v>47.748</v>
+        <v>47.75</v>
       </c>
       <c r="E17">
-        <v>1.325</v>
+        <v>1.32</v>
       </c>
       <c r="F17">
-        <v>1720.832</v>
+        <v>1720.83</v>
       </c>
       <c r="G17">
-        <v>0.035</v>
+        <v>0.03</v>
       </c>
       <c r="H17">
-        <v>3.345</v>
+        <v>3.34</v>
       </c>
       <c r="I17">
-        <v>1.829</v>
+        <v>1.83</v>
       </c>
       <c r="J17">
         <v>-0</v>
@@ -4678,22 +4678,22 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.977</v>
+        <v>0.98</v>
       </c>
       <c r="E18">
         <v>0.96</v>
       </c>
       <c r="F18">
-        <v>0.994</v>
+        <v>0.99</v>
       </c>
       <c r="G18">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.008999999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="J18">
         <v>-0</v>
@@ -4716,22 +4716,22 @@
         </is>
       </c>
       <c r="D19">
-        <v>1.125</v>
+        <v>1.13</v>
       </c>
       <c r="E19">
-        <v>0.868</v>
+        <v>0.87</v>
       </c>
       <c r="F19">
-        <v>1.458</v>
+        <v>1.46</v>
       </c>
       <c r="G19">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="H19">
-        <v>0.017</v>
+        <v>0.02</v>
       </c>
       <c r="I19">
-        <v>0.132</v>
+        <v>0.13</v>
       </c>
       <c r="J19">
         <v>-0</v>
@@ -4754,22 +4754,22 @@
         </is>
       </c>
       <c r="D20">
-        <v>30.894</v>
+        <v>30.89</v>
       </c>
       <c r="E20">
-        <v>0.591</v>
+        <v>0.59</v>
       </c>
       <c r="F20">
-        <v>1616.192</v>
+        <v>1616.19</v>
       </c>
       <c r="G20">
-        <v>0.089</v>
+        <v>0.09</v>
       </c>
       <c r="H20">
-        <v>4.077</v>
+        <v>4.08</v>
       </c>
       <c r="I20">
-        <v>2.019</v>
+        <v>2.02</v>
       </c>
       <c r="J20">
         <v>-0</v>
@@ -4792,22 +4792,22 @@
         </is>
       </c>
       <c r="D21">
-        <v>1025.658</v>
+        <v>1025.66</v>
       </c>
       <c r="E21">
-        <v>0.131</v>
+        <v>0.13</v>
       </c>
       <c r="F21">
-        <v>8013350.097</v>
+        <v>8013350.1</v>
       </c>
       <c r="G21">
         <v>0.13</v>
       </c>
       <c r="H21">
-        <v>20.915</v>
+        <v>20.92</v>
       </c>
       <c r="I21">
-        <v>4.573</v>
+        <v>4.57</v>
       </c>
       <c r="J21">
         <v>-0</v>
@@ -4830,22 +4830,22 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="E22">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>7.954</v>
+        <v>7.95</v>
       </c>
       <c r="G22">
-        <v>0.327</v>
+        <v>0.33</v>
       </c>
       <c r="H22">
-        <v>4.486</v>
+        <v>4.49</v>
       </c>
       <c r="I22">
-        <v>2.118</v>
+        <v>2.12</v>
       </c>
       <c r="J22">
         <v>-0</v>

--- a/3_Results/33_ResultsHTC/htc_spillover_adjusted.xlsx
+++ b/3_Results/33_ResultsHTC/htc_spillover_adjusted.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp</t>
+          <t>Y1_ik ~ T_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income</t>
         </is>
       </c>
     </row>
@@ -468,7 +468,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + gender + age + education + alcohol_weekly + prop_began_infected + prop_male</t>
+          <t>Y1_ik ~ T_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + Z2_k + gender + age + marital_status + education + monthly_income + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + prop_vlsupp</t>
+          <t>Y1_ik ~ T_k + Z2_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Y1_ik ~ T_k + Z2_k + gender + age + education + alcohol_weekly + prop_began_infected + prop_male</t>
+          <t>Y1_ik ~ T_k + Z2_k + gender + age + marital_status + education + alcohol_weekly + partners_12mos + prop_began_infected + prop_male + monthly_income</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-0.42 (-0.83, 0)</t>
+          <t>-0.41 (-0.83, 0)</t>
         </is>
       </c>
       <c r="E2">
@@ -637,17 +637,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-0.12 (-0.82, 0.59)</t>
+          <t>-0.03 (-0.63, 0.56)</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="G4">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="H4">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -668,7 +668,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>-0.04 (NA, NA)</t>
+          <t>-0.03 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -690,17 +690,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.37 (-1.49, 2.22)</t>
+          <t>0.08 (-1.29, 1.46)</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="G6">
-        <v>0.9</v>
+        <v>0.49</v>
       </c>
       <c r="H6">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
@@ -721,7 +721,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09 (NA, NA)</t>
+          <t>0.08 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66 (0.43, 1)</t>
+          <t>0.66 (0.44, 1)</t>
         </is>
       </c>
       <c r="E2">
@@ -832,7 +832,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.68 (0.45, 1.04)</t>
+          <t>0.69 (0.45, 1.04)</t>
         </is>
       </c>
       <c r="E3">
@@ -866,17 +866,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.89 (0.44, 1.8)</t>
+          <t>0.97 (0.53, 1.74)</t>
         </is>
       </c>
       <c r="E4">
-        <v>0.74</v>
+        <v>0.91</v>
       </c>
       <c r="G4">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="H4">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -897,7 +897,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.96 (NA, NA)</t>
+          <t>0.97 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -919,17 +919,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.37 (-1.49, 2.22)</t>
+          <t>0.08 (-1.29, 1.46)</t>
         </is>
       </c>
       <c r="E6">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="G6">
-        <v>0.9</v>
+        <v>0.49</v>
       </c>
       <c r="H6">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7">
@@ -950,7 +950,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.09 (NA, NA)</t>
+          <t>0.08 (NA, NA)</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.42 (-0.83, 0)</t>
+          <t>-0.41 (-0.83, 0)</t>
         </is>
       </c>
       <c r="D2">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-1.11 (-1.69, -0.54)</t>
+          <t>-1.18 (-1.77, -0.59)</t>
         </is>
       </c>
       <c r="D3">
@@ -1059,7 +1059,7 @@
         <v>0.09</v>
       </c>
       <c r="G3">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.04 (-0.06, -0.02)</t>
+          <t>-0.03 (-0.05, 0)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1099,25 +1099,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.21 (0.35, 2.07)</t>
+          <t>-0.63 (-2.76, 1.49)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.19</v>
+        <v>1.17</v>
       </c>
       <c r="G5">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -1128,25 +1128,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-12.17 (-513.93, 489.58)</t>
+          <t>0.03 (-2.02, 2.07)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65537.64999999999</v>
+        <v>1.09</v>
       </c>
       <c r="G6">
-        <v>256</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7">
@@ -1157,25 +1157,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.37 (0.21, 2.53)</t>
+          <t>-20.33 (-31684.28, 31643.61)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.35</v>
+        <v>260996024.46</v>
       </c>
       <c r="G7">
-        <v>0.59</v>
+        <v>16155.37</v>
       </c>
     </row>
     <row r="8">
@@ -1186,12 +1186,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.33 (0.32, 2.34)</t>
+          <t>1.19 (0.27, 2.11)</t>
         </is>
       </c>
       <c r="D8">
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G8">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1215,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.86 (-0.05, 1.78)</t>
+          <t>1.43 (0.17, 2.69)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="G9">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
@@ -1244,25 +1244,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.35 (0.18, 0.52)</t>
+          <t>1.38 (0.29, 2.47)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="G10">
-        <v>0.09</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1273,25 +1273,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3.75 (0.32, 7.18)</t>
+          <t>0.84 (-0.12, 1.8)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.06</v>
+        <v>0.24</v>
       </c>
       <c r="G11">
-        <v>1.75</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="12">
@@ -1302,25 +1302,286 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0.32 (0.15, 0.5)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.11 (-0.17, 0.39)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.44</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+      <c r="G13">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>3.85 (0.42, 7.28)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3.07</v>
+      </c>
+      <c r="G14">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>6.43 (-2.35, 15.21)</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>0.15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>20.05</v>
-      </c>
-      <c r="G12">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6.32 (-2.46, 15.11)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>20.09</v>
+      </c>
+      <c r="G15">
         <v>4.48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>monthly_income1000-4999 pula</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.3 (-1.21, 1.81)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.7</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.59</v>
+      </c>
+      <c r="G16">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-0.29 (-2.02, 1.44)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.74</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.78</v>
+      </c>
+      <c r="G17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.21 (-1.33, 1.74)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.79</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.61</v>
+      </c>
+      <c r="G18">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-0.64 (-3.12, 1.84)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.61</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1.6</v>
+      </c>
+      <c r="G19">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.67 (-1.86, 3.2)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.61</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.67</v>
+      </c>
+      <c r="G20">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.12 (-1.31, 1.55)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.87</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.53</v>
+      </c>
+      <c r="G21">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -1330,7 +1591,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1386,7 +1647,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.66 (0.43, 1)</t>
+          <t>0.66 (0.44, 1)</t>
         </is>
       </c>
       <c r="D2">
@@ -1415,7 +1676,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.33 (0.18, 0.59)</t>
+          <t>0.31 (0.17, 0.55)</t>
         </is>
       </c>
       <c r="D3">
@@ -1428,7 +1689,7 @@
         <v>0.09</v>
       </c>
       <c r="G3">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -1444,11 +1705,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.96 (0.94, 0.98)</t>
+          <t>0.97 (0.95, 1)</t>
         </is>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1468,25 +1729,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>3.35 (1.42, 7.9)</t>
+          <t>0.53 (0.06, 4.44)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0.01</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.19</v>
+        <v>1.17</v>
       </c>
       <c r="G5">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6">
@@ -1497,25 +1758,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0 (0, 4.19764209301335e+212)</t>
+          <t>1.03 (0.13, 7.95)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>65537.64999999999</v>
+        <v>1.09</v>
       </c>
       <c r="G6">
-        <v>256</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="7">
@@ -1526,25 +1787,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3.93 (1.24, 12.51)</t>
+          <t>0 (0, Inf)</t>
         </is>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.35</v>
+        <v>260996024.46</v>
       </c>
       <c r="G7">
-        <v>0.59</v>
+        <v>16155.37</v>
       </c>
     </row>
     <row r="8">
@@ -1555,12 +1816,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.78 (1.38, 10.36)</t>
+          <t>3.27 (1.3, 8.21)</t>
         </is>
       </c>
       <c r="D8">
@@ -1570,10 +1831,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G8">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="9">
@@ -1584,25 +1845,25 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2.37 (0.95, 5.9)</t>
+          <t>4.17 (1.19, 14.68)</t>
         </is>
       </c>
       <c r="D9">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="G9">
-        <v>0.46</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
@@ -1613,25 +1874,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1.42 (1.2, 1.69)</t>
+          <t>3.98 (1.34, 11.82)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="G10">
-        <v>0.09</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1642,25 +1903,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>42.53 (1.38, 1309.94)</t>
+          <t>2.32 (0.89, 6.08)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.06</v>
+        <v>0.24</v>
       </c>
       <c r="G11">
-        <v>1.75</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="12">
@@ -1671,25 +1932,286 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1.38 (1.16, 1.65)</t>
+        </is>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0.01</v>
+      </c>
+      <c r="G12">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.12 (0.84, 1.48)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0.44</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.02</v>
+      </c>
+      <c r="G13">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>46.98 (1.51, 1456.7)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>3.07</v>
+      </c>
+      <c r="G14">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>620.26 (0.1, 4015998.86)</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>0.15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>20.05</v>
-      </c>
-      <c r="G12">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>558.11 (0.09, 3649773.32)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.16</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>20.09</v>
+      </c>
+      <c r="G15">
         <v>4.48</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>monthly_income1000-4999 pula</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1.35 (0.3, 6.13)</t>
+        </is>
+      </c>
+      <c r="D16">
+        <v>0.7</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0.59</v>
+      </c>
+      <c r="G16">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.75 (0.13, 4.2)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.74</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.78</v>
+      </c>
+      <c r="G17">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1.23 (0.27, 5.72)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.79</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.61</v>
+      </c>
+      <c r="G18">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.53 (0.04, 6.3)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.61</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1.6</v>
+      </c>
+      <c r="G19">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1.95 (0.16, 24.48)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.61</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.67</v>
+      </c>
+      <c r="G20">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Total Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.13 (0.27, 4.73)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.87</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0.53</v>
+      </c>
+      <c r="G21">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -1699,7 +2221,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1784,17 +2306,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2.56 (-2.2, 7.32)</t>
+          <t>2.45 (-2.31, 7.22)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="G3">
         <v>2.43</v>
@@ -1813,7 +2335,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-1.11 (-1.68, -0.53)</t>
+          <t>-1.17 (-1.76, -0.59)</t>
         </is>
       </c>
       <c r="D4">
@@ -1826,7 +2348,7 @@
         <v>0.09</v>
       </c>
       <c r="G4">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -1842,11 +2364,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.04 (-0.06, -0.02)</t>
+          <t>-0.03 (-0.05, 0)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1866,25 +2388,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1.2 (0.34, 2.06)</t>
+          <t>-0.66 (-2.79, 1.46)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.19</v>
+        <v>1.18</v>
       </c>
       <c r="G6">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -1895,25 +2417,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-17.83 (-63335.09, 63299.43)</t>
+          <t>-0.01 (-2.06, 2.03)</t>
         </is>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1043633581.39</v>
+        <v>1.09</v>
       </c>
       <c r="G7">
-        <v>32305.32</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -1924,25 +2446,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.37 (0.21, 2.53)</t>
+          <t>-20.99 (-43353.2, 43311.23)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.35</v>
+        <v>488793609.75</v>
       </c>
       <c r="G8">
-        <v>0.59</v>
+        <v>22108.68</v>
       </c>
     </row>
     <row r="9">
@@ -1953,12 +2475,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1.34 (0.33, 2.34)</t>
+          <t>1.18 (0.26, 2.1)</t>
         </is>
       </c>
       <c r="D9">
@@ -1968,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G9">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
@@ -1982,25 +2504,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.86 (-0.06, 1.77)</t>
+          <t>1.43 (0.17, 2.69)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="G10">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="11">
@@ -2011,25 +2533,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.35 (0.18, 0.52)</t>
+          <t>1.39 (0.3, 2.48)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="G11">
-        <v>0.09</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -2040,25 +2562,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2.46 (-1.73, 6.65)</t>
+          <t>0.84 (-0.12, 1.8)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.57</v>
+        <v>0.24</v>
       </c>
       <c r="G12">
-        <v>2.14</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="13">
@@ -2069,25 +2591,286 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0.32 (0.14, 0.49)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.11 (-0.17, 0.39)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.45</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.02</v>
+      </c>
+      <c r="G14">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2.62 (-1.56, 6.8)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.22</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4.55</v>
+      </c>
+      <c r="G15">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>7.2 (-1.8, 16.21)</t>
-        </is>
-      </c>
-      <c r="D13">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7.04 (-1.95, 16.03)</t>
+        </is>
+      </c>
+      <c r="D16">
         <v>0.12</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>21.1</v>
-      </c>
-      <c r="G13">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>21.04</v>
+      </c>
+      <c r="G16">
         <v>4.59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monthly_income1000-4999 pula</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0.32 (-1.19, 1.83)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.68</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.6</v>
+      </c>
+      <c r="G17">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>-0.29 (-2.01, 1.44)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.75</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.77</v>
+      </c>
+      <c r="G18">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0.22 (-1.31, 1.76)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.78</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.61</v>
+      </c>
+      <c r="G19">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>-0.62 (-3.1, 1.86)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.63</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.6</v>
+      </c>
+      <c r="G20">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0.68 (-1.85, 3.22)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.6</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.67</v>
+      </c>
+      <c r="G21">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.13 (-1.3, 1.56)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.86</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.53</v>
+      </c>
+      <c r="G22">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -2097,7 +2880,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2153,7 +2936,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.68 (0.45, 1.04)</t>
+          <t>0.69 (0.45, 1.04)</t>
         </is>
       </c>
       <c r="D2">
@@ -2182,17 +2965,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12.92 (0.11, 1509.33)</t>
+          <t>11.63 (0.1, 1364.11)</t>
         </is>
       </c>
       <c r="D3">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.9</v>
+        <v>5.91</v>
       </c>
       <c r="G3">
         <v>2.43</v>
@@ -2211,7 +2994,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.33 (0.19, 0.59)</t>
+          <t>0.31 (0.17, 0.56)</t>
         </is>
       </c>
       <c r="D4">
@@ -2224,7 +3007,7 @@
         <v>0.09</v>
       </c>
       <c r="G4">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -2240,11 +3023,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.96 (0.94, 0.98)</t>
+          <t>0.97 (0.95, 1)</t>
         </is>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -2264,25 +3047,25 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>educationJunior secondary</t>
+          <t>marital_statusMarried</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3.32 (1.41, 7.85)</t>
+          <t>0.52 (0.06, 4.31)</t>
         </is>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>0.54</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.19</v>
+        <v>1.18</v>
       </c>
       <c r="G6">
-        <v>0.44</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7">
@@ -2293,25 +3076,25 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>educationMissing</t>
+          <t>marital_statusSingle/never married</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0 (0, Inf)</t>
+          <t>0.99 (0.13, 7.64)</t>
         </is>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1043633581.39</v>
+        <v>1.09</v>
       </c>
       <c r="G7">
-        <v>32305.32</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="8">
@@ -2322,25 +3105,25 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>educationNon-formal</t>
+          <t>marital_statusWidowed</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>3.92 (1.23, 12.5)</t>
+          <t>0 (0, Inf)</t>
         </is>
       </c>
       <c r="D8">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.35</v>
+        <v>488793609.75</v>
       </c>
       <c r="G8">
-        <v>0.59</v>
+        <v>22108.68</v>
       </c>
     </row>
     <row r="9">
@@ -2351,12 +3134,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>educationPrimary</t>
+          <t>educationJunior secondary</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3.8 (1.39, 10.41)</t>
+          <t>3.27 (1.3, 8.2)</t>
         </is>
       </c>
       <c r="D9">
@@ -2366,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="G9">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="10">
@@ -2380,25 +3163,25 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>educationSenior secondary</t>
+          <t>educationNon-formal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2.35 (0.95, 5.85)</t>
+          <t>4.19 (1.19, 14.75)</t>
         </is>
       </c>
       <c r="D10">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.22</v>
+        <v>0.41</v>
       </c>
       <c r="G10">
-        <v>0.47</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="11">
@@ -2409,25 +3192,25 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
+          <t>educationPrimary</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1.42 (1.2, 1.68)</t>
+          <t>4.01 (1.35, 11.94)</t>
         </is>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0.31</v>
       </c>
       <c r="G11">
-        <v>0.09</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -2438,25 +3221,25 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>educationSenior secondary</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11.68 (0.18, 770.29)</t>
+          <t>2.31 (0.88, 6.06)</t>
         </is>
       </c>
       <c r="D12">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.57</v>
+        <v>0.24</v>
       </c>
       <c r="G12">
-        <v>2.14</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="13">
@@ -2467,25 +3250,286 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>alcohol_weekly</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1.38 (1.16, 1.64)</t>
+        </is>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.01</v>
+      </c>
+      <c r="G13">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>partners_12mos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1.11 (0.84, 1.47)</t>
+        </is>
+      </c>
+      <c r="D14">
+        <v>0.45</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.02</v>
+      </c>
+      <c r="G14">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>prop_began_infected</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13.72 (0.21, 898.81)</t>
+        </is>
+      </c>
+      <c r="D15">
+        <v>0.22</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>4.55</v>
+      </c>
+      <c r="G15">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>prop_male</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1346.11 (0.17, 10938960.27)</t>
-        </is>
-      </c>
-      <c r="D13">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1143.59 (0.14, 9178093.64)</t>
+        </is>
+      </c>
+      <c r="D16">
         <v>0.12</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>21.1</v>
-      </c>
-      <c r="G13">
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>21.04</v>
+      </c>
+      <c r="G16">
         <v>4.59</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monthly_income1000-4999 pula</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.38 (0.3, 6.24)</t>
+        </is>
+      </c>
+      <c r="D17">
+        <v>0.68</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.6</v>
+      </c>
+      <c r="G17">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>monthly_income200-499 pula</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.75 (0.13, 4.22)</t>
+        </is>
+      </c>
+      <c r="D18">
+        <v>0.75</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.77</v>
+      </c>
+      <c r="G18">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>monthly_income500-999 pula</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1.25 (0.27, 5.81)</t>
+        </is>
+      </c>
+      <c r="D19">
+        <v>0.78</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0.61</v>
+      </c>
+      <c r="G19">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>monthly_income5000-10000 pula</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.54 (0.05, 6.43)</t>
+        </is>
+      </c>
+      <c r="D20">
+        <v>0.63</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1.6</v>
+      </c>
+      <c r="G20">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>monthly_incomeMore than 10000 pula</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1.98 (0.16, 24.94)</t>
+        </is>
+      </c>
+      <c r="D21">
+        <v>0.6</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1.67</v>
+      </c>
+      <c r="G21">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Direct Effects Model</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>monthly_incomeNo income</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.14 (0.27, 4.75)</t>
+        </is>
+      </c>
+      <c r="D22">
+        <v>0.86</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0.53</v>
+      </c>
+      <c r="G22">
+        <v>0.73</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +3539,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2524,16 +3568,6 @@
           <t>gender</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>monthly_income</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>T_k</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2541,16 +3575,6 @@
           <t>age</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>marital_status</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2558,16 +3582,6 @@
           <t>marital_status</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>prop_vlsupp</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2575,25 +3589,10 @@
           <t>education</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>partners_12mos</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>education</t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>monthly_income</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>alcohol_weekly</t>
         </is>
       </c>
@@ -2601,45 +3600,28 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>alcohol_weekly</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>prop_began_infected</t>
+          <t>partners_12mos</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>partners_12mos</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>prop_male</t>
+          <t>prop_began_infected</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>prop_began_infected</t>
+          <t>prop_male</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>prop_male</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>prop_vlsupp</t>
+          <t>monthly_income</t>
         </is>
       </c>
     </row>
